--- a/data/hanzo-cloud/hanzo-gateway-server_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-gateway-server_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="172">
   <si>
     <t>Class Name</t>
   </si>
@@ -246,15 +246,15 @@
     <t>getErrorAttributes(org.springframework.web.reactive.function.server.ServerRequest, boolean)</t>
   </si>
   <si>
+    <t>getError(org.springframework.web.reactive.function.server.ServerRequest)</t>
+  </si>
+  <si>
+    <t>java.lang.Throwable</t>
+  </si>
+  <si>
     <t>handle(org.springframework.web.server.ServerWebExchange, java.lang.Throwable)</t>
   </si>
   <si>
-    <t>getError(org.springframework.web.reactive.function.server.ServerRequest)</t>
-  </si>
-  <si>
-    <t>java.lang.Throwable</t>
-  </si>
-  <si>
     <t>afterPropertiesSet()</t>
   </si>
   <si>
@@ -444,18 +444,18 @@
     <t>linkTrackProperties</t>
   </si>
   <si>
+    <t>gatewayProperties</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
+  </si>
+  <si>
     <t>routeLocator</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.route.RouteLocator</t>
   </si>
   <si>
-    <t>gatewayProperties</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -538,9 +538,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1971,10 +1968,10 @@
         <v>74</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -1982,13 +1979,13 @@
         <v>51</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -3061,7 +3058,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3083,10 +3080,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -3094,32 +3091,32 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -3127,32 +3124,32 @@
         <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -3160,7 +3157,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>157</v>
@@ -3171,7 +3168,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>157</v>
@@ -3182,7 +3179,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>157</v>
@@ -3193,7 +3190,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>157</v>
@@ -3201,10 +3198,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>157</v>
@@ -3212,10 +3209,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>157</v>
@@ -3223,21 +3220,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>157</v>
@@ -3245,32 +3242,32 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>157</v>
@@ -3278,10 +3275,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>157</v>
@@ -3289,109 +3286,109 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>164</v>
@@ -3399,10 +3396,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>164</v>
@@ -3410,133 +3407,23 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s" s="0">
         <v>164</v>
       </c>
     </row>
@@ -4327,13 +4214,13 @@
         <v>90</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -4341,13 +4228,13 @@
         <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
